--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value52.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value52.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.8981696138419194</v>
+        <v>1.700207233428955</v>
       </c>
       <c r="B1">
-        <v>2.261192998855035</v>
+        <v>3.863176107406616</v>
       </c>
       <c r="C1">
-        <v>3.103879211001228</v>
+        <v>4.462451934814453</v>
       </c>
       <c r="D1">
-        <v>2.161419813868359</v>
+        <v>2.431181669235229</v>
       </c>
       <c r="E1">
-        <v>0.9691651649586046</v>
+        <v>1.575451374053955</v>
       </c>
     </row>
   </sheetData>
